--- a/DONE/PAYAD, RONALDO.xlsx
+++ b/DONE/PAYAD, RONALDO.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242C4728-578A-4ECF-A40C-E1155988F18A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="2018 LEAVE CREDITS" sheetId="4" r:id="rId1"/>
@@ -27,7 +26,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'2017 LEAVE BALANCE'!$1:$9</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'2018 LEAVE CREDITS'!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -210,7 +209,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -589,17 +588,14 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -609,6 +605,9 @@
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1137,25 +1136,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table13" displayName="Table13" ref="A8:K129" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A8:K129" totalsRowShown="0" headerRowDxfId="29" headerRowBorderDxfId="28" tableBorderDxfId="27" totalsRowBorderDxfId="26">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="23"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="21">
+    <tableColumn id="1" name="PERIOD" dataDxfId="25"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="24"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="23"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="22"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="21">
       <calculatedColumnFormula>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="20"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="19">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="20"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="19">
       <calculatedColumnFormula>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="17">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="18"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="17">
       <calculatedColumnFormula>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="15"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="16"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1167,25 +1166,25 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table1" displayName="Table1" ref="A8:K71" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K71" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0100-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1492,34 +1491,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K129"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A61"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="4050" topLeftCell="A70" activePane="bottomLeft"/>
       <selection activeCell="B3" sqref="B3:C3"/>
-      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
+      <selection pane="bottomLeft" activeCell="D80" sqref="D80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1531,16 +1530,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1549,16 +1548,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1569,16 +1568,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1586,7 +1585,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1599,24 +1598,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1651,7 +1650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1660,7 +1659,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table13[EARNED])-SUM(Table13[Absence Undertime W/ Pay])</f>
-        <v>52.5</v>
+        <v>53.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1670,12 +1669,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table13[[EARNED ]])-SUM(Table13[Absence Undertime  W/ Pay])</f>
-        <v>77.5</v>
+        <v>78.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>44</v>
       </c>
@@ -1697,7 +1696,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -1717,7 +1716,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -1737,7 +1736,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -1757,7 +1756,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -1777,7 +1776,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -1797,7 +1796,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -1817,7 +1816,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -1837,7 +1836,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -1857,7 +1856,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -1877,7 +1876,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43374</v>
       </c>
@@ -1897,7 +1896,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43405</v>
       </c>
@@ -1917,7 +1916,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43435</v>
       </c>
@@ -1941,7 +1940,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="48" t="s">
         <v>45</v>
       </c>
@@ -1959,7 +1958,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43466</v>
       </c>
@@ -1979,7 +1978,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43497</v>
       </c>
@@ -1999,7 +1998,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43525</v>
       </c>
@@ -2019,7 +2018,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43556</v>
       </c>
@@ -2039,7 +2038,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43586</v>
       </c>
@@ -2059,7 +2058,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43617</v>
       </c>
@@ -2079,7 +2078,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43647</v>
       </c>
@@ -2099,7 +2098,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43678</v>
       </c>
@@ -2119,7 +2118,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43709</v>
       </c>
@@ -2139,7 +2138,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43739</v>
       </c>
@@ -2159,7 +2158,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43770</v>
       </c>
@@ -2179,7 +2178,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43800</v>
       </c>
@@ -2203,7 +2202,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>47</v>
       </c>
@@ -2221,7 +2220,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43831</v>
       </c>
@@ -2241,7 +2240,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43862</v>
       </c>
@@ -2261,7 +2260,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40">
         <v>43891</v>
       </c>
@@ -2281,7 +2280,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43922</v>
       </c>
@@ -2301,7 +2300,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43952</v>
       </c>
@@ -2321,7 +2320,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43983</v>
       </c>
@@ -2341,7 +2340,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>44013</v>
       </c>
@@ -2361,7 +2360,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>44044</v>
       </c>
@@ -2381,7 +2380,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>44075</v>
       </c>
@@ -2401,7 +2400,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44105</v>
       </c>
@@ -2421,7 +2420,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44136</v>
       </c>
@@ -2441,7 +2440,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44166</v>
       </c>
@@ -2465,7 +2464,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="48" t="s">
         <v>48</v>
       </c>
@@ -2483,7 +2482,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44197</v>
       </c>
@@ -2503,7 +2502,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44228</v>
       </c>
@@ -2523,7 +2522,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44256</v>
       </c>
@@ -2543,7 +2542,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>44287</v>
       </c>
@@ -2563,7 +2562,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44317</v>
       </c>
@@ -2583,7 +2582,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44348</v>
       </c>
@@ -2603,7 +2602,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44378</v>
       </c>
@@ -2623,7 +2622,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44409</v>
       </c>
@@ -2643,7 +2642,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44440</v>
       </c>
@@ -2663,7 +2662,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44470</v>
       </c>
@@ -2683,7 +2682,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44501</v>
       </c>
@@ -2703,7 +2702,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44531</v>
       </c>
@@ -2727,7 +2726,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="48" t="s">
         <v>49</v>
       </c>
@@ -2745,7 +2744,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44562</v>
       </c>
@@ -2765,7 +2764,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44593</v>
       </c>
@@ -2785,7 +2784,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44621</v>
       </c>
@@ -2805,7 +2804,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40">
         <v>44652</v>
       </c>
@@ -2825,7 +2824,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44682</v>
       </c>
@@ -2845,7 +2844,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44713</v>
       </c>
@@ -2865,7 +2864,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44743</v>
       </c>
@@ -2885,7 +2884,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44774</v>
       </c>
@@ -2905,7 +2904,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="49"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44805</v>
       </c>
@@ -2925,7 +2924,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>44835</v>
       </c>
@@ -2945,7 +2944,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44866</v>
       </c>
@@ -2971,7 +2970,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44896</v>
       </c>
@@ -2995,7 +2994,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="48" t="s">
         <v>54</v>
       </c>
@@ -3013,7 +3012,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44927</v>
       </c>
@@ -3033,7 +3032,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44958</v>
       </c>
@@ -3053,23 +3052,27 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
       <c r="B78" s="20"/>
-      <c r="C78" s="13"/>
+      <c r="C78" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D78" s="39"/>
       <c r="E78" s="9"/>
       <c r="F78" s="20"/>
-      <c r="G78" s="13" t="str">
-        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G78" s="13">
+        <f>IF(ISBLANK(Table13[[#This Row],[EARNED]]),"",Table13[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H78" s="39"/>
       <c r="I78" s="9"/>
       <c r="J78" s="11"/>
       <c r="K78" s="20"/>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40"/>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
@@ -3085,7 +3088,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40"/>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
@@ -3101,7 +3104,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
@@ -3117,7 +3120,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
@@ -3133,7 +3136,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40"/>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
@@ -3149,7 +3152,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
@@ -3165,7 +3168,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40"/>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
@@ -3181,7 +3184,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40"/>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
@@ -3197,7 +3200,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
@@ -3213,7 +3216,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40"/>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -3229,7 +3232,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40"/>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -3245,7 +3248,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40"/>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -3261,7 +3264,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40"/>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -3277,7 +3280,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40"/>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -3293,7 +3296,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40"/>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -3309,7 +3312,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40"/>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -3325,7 +3328,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -3341,7 +3344,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40"/>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -3357,7 +3360,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40"/>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -3373,7 +3376,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40"/>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -3389,7 +3392,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40"/>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -3405,7 +3408,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40"/>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -3421,7 +3424,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40"/>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -3437,7 +3440,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40"/>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -3453,7 +3456,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40"/>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -3469,7 +3472,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40"/>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -3485,7 +3488,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -3501,7 +3504,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40"/>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -3517,7 +3520,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40"/>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -3533,7 +3536,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40"/>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -3549,7 +3552,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40"/>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -3565,7 +3568,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -3581,7 +3584,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -3597,7 +3600,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40"/>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -3613,7 +3616,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40"/>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -3629,7 +3632,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40"/>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -3645,7 +3648,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -3661,7 +3664,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -3677,7 +3680,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40"/>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -3693,7 +3696,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40"/>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -3709,7 +3712,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40"/>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -3725,7 +3728,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40"/>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -3741,7 +3744,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40"/>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -3757,7 +3760,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40"/>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -3773,7 +3776,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40"/>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -3789,7 +3792,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40"/>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -3805,7 +3808,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40"/>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -3821,7 +3824,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40"/>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -3837,7 +3840,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40"/>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -3853,7 +3856,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40"/>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -3869,7 +3872,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="41"/>
       <c r="B129" s="15"/>
       <c r="C129" s="42"/>
@@ -3887,28 +3890,28 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="G7:J7"/>
     <mergeCell ref="B2:C2"/>
     <mergeCell ref="F2:G2"/>
     <mergeCell ref="J2:K2"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="G7:J7"/>
   </mergeCells>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="89" fitToHeight="0" orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <pageSetup scale="88" fitToHeight="0" orientation="landscape" verticalDpi="300" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;12REPUBLIC OF THE PHILIPPINES
 CITY OF TAGAYTAY
@@ -3916,8 +3919,8 @@
     <oddFooter>&amp;L
 PREPARED BY: ___________________
 DATE: &amp;D, &amp;T&amp;C
-CERTIFIED CORRECT BY: &amp;UALMA A. MALABANAN&amp;U
-                                   HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
+CERTIFIED CORRECT BY: &amp;UNANETTE B. SUSA&amp;U
+                                           OIC-HRMO&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
@@ -3926,34 +3929,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K71"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A7" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A7" activePane="bottomLeft"/>
       <selection activeCell="A75" sqref="A75"/>
       <selection pane="bottomLeft" activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -3965,16 +3968,16 @@
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="54"/>
-      <c r="G2" s="54"/>
+      <c r="F2" s="51"/>
+      <c r="G2" s="51"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="51"/>
-      <c r="K2" s="52"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J2" s="52"/>
+      <c r="K2" s="53"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -3983,16 +3986,16 @@
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="51"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="52"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
-    </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
+    </row>
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -4003,16 +4006,16 @@
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="F4" s="52"/>
+      <c r="G4" s="52"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="51"/>
-      <c r="K4" s="52"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="J4" s="52"/>
+      <c r="K4" s="53"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -4020,7 +4023,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -4033,24 +4036,24 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="53" t="s">
+      <c r="C7" s="57" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53" t="s">
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+      <c r="G7" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -4085,7 +4088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -4109,7 +4112,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>49</v>
       </c>
@@ -4127,7 +4130,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>44774</v>
       </c>
@@ -4151,7 +4154,7 @@
         <v>44777</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40"/>
       <c r="B12" s="20"/>
       <c r="C12" s="13"/>
@@ -4164,7 +4167,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20"/>
       <c r="C13" s="13"/>
@@ -4177,7 +4180,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20"/>
       <c r="C14" s="13"/>
@@ -4190,7 +4193,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40"/>
       <c r="B15" s="20"/>
       <c r="C15" s="13"/>
@@ -4203,7 +4206,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40"/>
       <c r="B16" s="20"/>
       <c r="C16" s="13"/>
@@ -4216,7 +4219,7 @@
       <c r="J16" s="11"/>
       <c r="K16" s="20"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20"/>
       <c r="C17" s="13"/>
@@ -4232,7 +4235,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20"/>
       <c r="C18" s="13"/>
@@ -4248,7 +4251,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20"/>
       <c r="C19" s="13"/>
@@ -4264,7 +4267,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20"/>
       <c r="C20" s="13"/>
@@ -4280,7 +4283,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20"/>
       <c r="C21" s="13"/>
@@ -4296,7 +4299,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40"/>
       <c r="B22" s="20"/>
       <c r="C22" s="13"/>
@@ -4312,7 +4315,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20"/>
       <c r="C23" s="13"/>
@@ -4328,7 +4331,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40"/>
       <c r="B24" s="20"/>
       <c r="C24" s="13"/>
@@ -4344,7 +4347,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40"/>
       <c r="B25" s="20"/>
       <c r="C25" s="13"/>
@@ -4360,7 +4363,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40"/>
       <c r="B26" s="20"/>
       <c r="C26" s="13"/>
@@ -4376,7 +4379,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20"/>
       <c r="C27" s="13"/>
@@ -4392,7 +4395,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40"/>
       <c r="B28" s="20"/>
       <c r="C28" s="13"/>
@@ -4408,7 +4411,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20"/>
       <c r="C29" s="13"/>
@@ -4424,7 +4427,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20"/>
       <c r="C30" s="13"/>
@@ -4440,7 +4443,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20"/>
       <c r="C31" s="13"/>
@@ -4456,7 +4459,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20"/>
       <c r="C32" s="13"/>
@@ -4472,7 +4475,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40"/>
       <c r="B33" s="20"/>
       <c r="C33" s="13"/>
@@ -4488,7 +4491,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40"/>
       <c r="B34" s="20"/>
       <c r="C34" s="13"/>
@@ -4504,7 +4507,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20"/>
       <c r="C35" s="13"/>
@@ -4520,7 +4523,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40"/>
       <c r="B36" s="20"/>
       <c r="C36" s="13"/>
@@ -4536,7 +4539,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40"/>
       <c r="B37" s="20"/>
       <c r="C37" s="13"/>
@@ -4552,7 +4555,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20"/>
       <c r="C38" s="13"/>
@@ -4568,7 +4571,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20"/>
       <c r="C39" s="13"/>
@@ -4584,7 +4587,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40"/>
       <c r="B40" s="20"/>
       <c r="C40" s="13"/>
@@ -4600,7 +4603,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40"/>
       <c r="B41" s="20"/>
       <c r="C41" s="13"/>
@@ -4616,7 +4619,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20"/>
       <c r="C42" s="13"/>
@@ -4632,7 +4635,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20"/>
       <c r="C43" s="13"/>
@@ -4648,7 +4651,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20"/>
       <c r="C44" s="13"/>
@@ -4664,7 +4667,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40"/>
       <c r="B45" s="20"/>
       <c r="C45" s="13"/>
@@ -4680,7 +4683,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20"/>
       <c r="C46" s="13"/>
@@ -4696,7 +4699,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40"/>
       <c r="B47" s="20"/>
       <c r="C47" s="13"/>
@@ -4712,7 +4715,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
@@ -4728,7 +4731,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20"/>
       <c r="C49" s="13"/>
@@ -4744,7 +4747,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40"/>
       <c r="B50" s="20"/>
       <c r="C50" s="13"/>
@@ -4760,7 +4763,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20"/>
       <c r="C51" s="13"/>
@@ -4776,7 +4779,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20"/>
       <c r="C52" s="13"/>
@@ -4792,7 +4795,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40"/>
       <c r="B53" s="20"/>
       <c r="C53" s="13"/>
@@ -4808,7 +4811,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20"/>
       <c r="C54" s="13"/>
@@ -4824,7 +4827,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40"/>
       <c r="B55" s="20"/>
       <c r="C55" s="13"/>
@@ -4840,7 +4843,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40"/>
       <c r="B56" s="20"/>
       <c r="C56" s="13"/>
@@ -4856,7 +4859,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20"/>
       <c r="C57" s="13"/>
@@ -4872,7 +4875,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20"/>
       <c r="C58" s="13"/>
@@ -4888,7 +4891,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20"/>
       <c r="C59" s="13"/>
@@ -4904,7 +4907,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40"/>
       <c r="B60" s="20"/>
       <c r="C60" s="13"/>
@@ -4920,7 +4923,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
@@ -4936,7 +4939,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20"/>
       <c r="C62" s="13"/>
@@ -4952,7 +4955,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40"/>
       <c r="B63" s="20"/>
       <c r="C63" s="13"/>
@@ -4968,7 +4971,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40"/>
       <c r="B64" s="20"/>
       <c r="C64" s="13"/>
@@ -4984,7 +4987,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40"/>
       <c r="B65" s="20"/>
       <c r="C65" s="13"/>
@@ -5000,7 +5003,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20"/>
       <c r="C66" s="13"/>
@@ -5016,7 +5019,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40"/>
       <c r="B67" s="20"/>
       <c r="C67" s="13"/>
@@ -5032,7 +5035,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20"/>
       <c r="C68" s="13"/>
@@ -5048,7 +5051,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20"/>
       <c r="C69" s="13"/>
@@ -5064,7 +5067,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40"/>
       <c r="B70" s="20"/>
       <c r="C70" s="13"/>
@@ -5080,7 +5083,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="41"/>
       <c r="B71" s="15"/>
       <c r="C71" s="42"/>
@@ -5111,10 +5114,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5137,28 +5140,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5171,7 +5174,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5200,7 +5203,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>62.89</v>
       </c>
@@ -5224,17 +5227,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5255,7 +5258,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5282,7 +5285,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5308,7 +5311,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5334,7 +5337,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5360,7 +5363,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5386,7 +5389,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5412,7 +5415,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5438,7 +5441,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5464,7 +5467,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5484,7 +5487,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5504,7 +5507,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5524,7 +5527,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5545,7 +5548,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5566,7 +5569,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5587,7 +5590,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5608,7 +5611,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5629,7 +5632,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5650,7 +5653,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5671,7 +5674,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5692,7 +5695,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5713,7 +5716,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5734,7 +5737,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5755,7 +5758,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5776,7 +5779,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5797,7 +5800,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5818,7 +5821,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5839,7 +5842,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5860,7 +5863,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5881,7 +5884,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5902,7 +5905,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5923,7 +5926,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5944,7 +5947,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5953,7 +5956,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5962,7 +5965,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5971,7 +5974,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5980,7 +5983,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5989,7 +5992,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5998,7 +6001,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6007,7 +6010,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6016,7 +6019,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6025,7 +6028,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6034,7 +6037,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6043,7 +6046,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6052,7 +6055,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6061,7 +6064,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6070,7 +6073,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6079,7 +6082,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6088,7 +6091,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6097,7 +6100,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6106,7 +6109,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6115,7 +6118,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6124,7 +6127,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6133,7 +6136,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6142,7 +6145,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6151,7 +6154,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6160,7 +6163,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6169,7 +6172,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6178,7 +6181,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6187,7 +6190,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6196,7 +6199,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6205,7 +6208,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
